--- a/topic_split/topic_23.xlsx
+++ b/topic_split/topic_23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>issue</t>
   </si>
@@ -22,34 +22,17 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
+    <t>SitRep Feed
+Sharing an idea from Alexei from BRC. He's proposing a view in the front end that serves as a feed of all SitReps (basically anything from the /situation_report/ endpoint, akin to how [ReliefWeb](https://reliefweb.int/updates) does it. 
+I imagine it would make sense to have this be both a complete feed in chronological order and also be filterable by emergency, emergency type, region, country, etc.
+Since documents' locations seem to be stored with either the `document` or `document_url` key, I think the solution here would just require a simple if/else across those two fields. I did something similar with a [simple Streamlit app](https://github.com/JonathanGarro/sitrep_downloader/blob/main/sitrep_downloader.py) my team uses to grab those docs on a disaster-specific basis.</t>
   </si>
   <si>
-    <t>[3.31046004e-308 1.99905230e-308 5.53693563e-308 1.96379509e-308
- 6.30115181e-308 8.18289036e-308 9.68647718e-308 1.95662202e-307
- 7.20685349e-308 4.21655706e-308 1.48860261e-307 5.88563563e-308
- 1.40073808e-307 2.53863127e-308 1.03281890e-307 4.78773829e-308
- 6.43842437e-308 7.67379803e-308 6.55620883e-308 5.56618568e-308
- 1.03460849e-307 7.41643346e-308 1.00000000e+000 4.66774552e-308
- 7.40162789e-308]</t>
-  </si>
-  <si>
-    <t>[3.06961931e-308 2.08145643e-308 6.08152303e-308 2.04972704e-308
- 5.42658350e-308 6.92199966e-308 1.03118965e-307 1.57819023e-307
- 8.45041256e-308 4.10728262e-308 1.46091219e-307 6.35544458e-308
- 2.11775913e-307 2.66868319e-308 1.03286965e-307 4.58227772e-308
- 5.67903521e-308 7.77817760e-308 6.15034837e-308 5.39096195e-308
- 1.31207889e-307 6.65587086e-308 1.00000000e+000 4.55353595e-308
- 7.83990050e-308]</t>
-  </si>
-  <si>
-    <t>[3.27293417e-308 2.03272607e-308 5.45361196e-308 1.99928894e-308
- 5.88032512e-308 7.97443581e-308 1.03340581e-307 2.00291925e-307
- 7.22737924e-308 4.16764495e-308 1.51764079e-307 5.74666716e-308
- 1.57359763e-307 2.59206638e-308 1.11291845e-307 4.68142374e-308
- 6.31558563e-308 8.12426848e-308 6.34489625e-308 5.49026553e-308
- 1.03260293e-307 7.20610678e-308 1.00000000e+000 4.63769928e-308
- 7.19546257e-308]</t>
+    <t xml:space="preserve">DREF Import Template: Auto append `https://` for incomplete URLs
+### From DREF Team 
+- Under "Event detail", the source URLs must start with "https://", otherwise they are marked as invalid. This might have prevented me from submitting the form previously, but at that time no specific error message/field was highlighted. When you enter the source directly in the online form, the "https://" appears automatically (the first row in the screenshot), but not when you import it from the file (in my case it was "[google.com](http://google.com/)", all the other rows in the screenshot). It might be more for the super ticket, but perhaps it's worth mentioning in the import file that the "https://" bit is a must.
+![Image](https://github.com/user-attachments/assets/3e9d6d00-063f-4fdc-8552-4205e01ab9f7)
+</t>
   </si>
 </sst>
 </file>
@@ -407,54 +390,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>75</v>
       </c>
       <c r="B2">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>103</v>
       </c>
       <c r="B3">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>113</v>
-      </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
